--- a/df_list_20250306.xlsx
+++ b/df_list_20250306.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="539">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -1057,16 +1057,593 @@
   </si>
   <si>
     <t>『창녕 교동과 송현동 고분군 송현Ⅰ지구 정밀발굴조사 용역』제안서 평가위원 후보자 모집공고</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>대구광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+  </si>
+  <si>
+    <t>제안서 평가위원별 평가결과 공고(비점오염원 관리대책 시행계획 이행평가 용역)</t>
+  </si>
+  <si>
+    <t>대구광역시 미술작품심의위원회 심의결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집 공고(범안로 교통개선 및 유휴부지 활용방안 수립 연구용역)</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집 공고(율하교 동편네거리 입체화사업 타당성평가 용역)</t>
+  </si>
+  <si>
+    <t>2025년 소방공무원 특수건강진단용역 제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>제안공모 공고[옛 중앙파출소 부지 신축공사 설계용역 제안공모]</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>김포시 중장기 교육로드맵 수립 용역 제안서 평가위원회 평가위원 모집공고</t>
+  </si>
+  <si>
+    <t>「김포시 교통신호제어기 온라인 무선통신 사업자 선정」제안서 평가위원(후보자) 공개모집</t>
+  </si>
+  <si>
+    <t>부천시 버스 노선체계 개편 종합계획 수립 용역  제안서 제출 안내 공고(...</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>충청도_청주시_상당구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+  </si>
+  <si>
+    <t>청주시 도시교통정비 중기계획 수립 용역 제안서 평가위원(후보자) 공개모집...</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>2025 전주시 청원 힐링캠프 위탁용역 제안서 (예비)평가위원 후보자 모...</t>
+  </si>
+  <si>
+    <t>제5회 전주정원산업박람회 운영대행 용역' 제안서 평가 일정 변경 공고</t>
+  </si>
+  <si>
+    <t>「아중호수 디지털 야간경관 미디어콘텐츠 구축 용역」제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>2025년 전주시 부서별 행정성과평가 연구용역 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>전라도_정읍시</t>
+  </si>
+  <si>
+    <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>초산교 보수보강공사 교면방수 특허공법 선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>초산교 보수보강공사 교량 인상,인하 특허공법 선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A131</t>
+  </si>
+  <si>
+    <t>전라도_순창군</t>
+  </si>
+  <si>
+    <t>http://eminwon.sunchang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
+  </si>
+  <si>
+    <t>「2025년 순창군 유아숲 체험원 교육 운영 위탁용역」 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A154</t>
+  </si>
+  <si>
+    <t>전라도_진도군</t>
+  </si>
+  <si>
+    <t>https://www.jindo.go.kr/home/gosi/general.cs?m=24&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>[고시]진도군 고향사랑기금 운용심의위원회 위원 재모집 공고</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>하양역 공공디자인 개선사업 제안서 평가위원(후보자)모집 공고</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>2025년 울진군보육정책위원회 심의결과 공고</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>「쉼과 힐링, 가톨릭 페스티벌 행사대행 용역」제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>2025년 칠곡아카데미 운영 위탁 용역 제안서 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>충청남도 농촌공간정책심의회 위원 공개모집(2차) 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>강원도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://state.gwd.go.kr/portal/bulletin/notification</t>
+  </si>
+  <si>
+    <t>강원특별자치도 항공사업자 재정지원 심의위원회 위원 위촉 공고</t>
+  </si>
+  <si>
+    <t>2025년 제1회 강원특별자치도 건축물미술작품 심의위원회 심의결과 공고</t>
+  </si>
+  <si>
+    <t>녹천교 외1개소 보수공사 신기술 특허공법 1차 정량평가 결과 공고</t>
+  </si>
+  <si>
+    <t>「2025년 탄천1교 보수공사」 신기술·특허공법 선정 정량적 평가(1차 평가) 결과 공고</t>
+  </si>
+  <si>
+    <t>「2025년 최초침전지 유지보수공사」 신기술·특허 공법선정 제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>『2025년 동호대교 보수공사』 등 2건 신기술·특허공법(교면방수) 선정 정량적 평가(1차 평가) 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+  </si>
+  <si>
+    <t>제안서 기술능력(정성적) 평가결과 공개(부산역사 구술채록(무용) 연구용역)</t>
+  </si>
+  <si>
+    <t>제안서 기술능력(정성적)평가 결과 공고(김해공항 소음지역 주민지원 개선방안 수립 용역)</t>
+  </si>
+  <si>
+    <t>제18기 부산광역시 건축물 미술작품 심의위원회 위원 공개모집 결과 공고</t>
+  </si>
+  <si>
+    <t>도심오염하천 수질개선 및 관리방안 수립 용역 제안서 정성적 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>「2025년도 광주광역시 공공기관 직원 채용 통합필기시험 대행용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A023</t>
+  </si>
+  <si>
+    <t>울산광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=1</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집 공고(2030 울산광역시 공공디자인 진흥계획 용역)</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=2</t>
+  </si>
+  <si>
+    <t>「디지털로 만든 열린 울산, 미디어파사드 설치공사 기본 및 실시설계 용역」제안서 평가위원회 결과 공고</t>
+  </si>
+  <si>
+    <t>A026</t>
+  </si>
+  <si>
+    <t>강원고시공고</t>
+  </si>
+  <si>
+    <t>2025년 상반기 직원 어울림연수 위탁용역 제안서 평가위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=4</t>
+  </si>
+  <si>
+    <t>2025년 금원산산림자원관리소 숲해설 운영 사업 제안서 평가위원회 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>A034</t>
+  </si>
+  <si>
+    <t>경기도_고양시</t>
+  </si>
+  <si>
+    <t>https://eminwon.goyang.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;not_ancmt_se_code=01,04,05&amp;title=%EA%B3%A0%EC%8B%9C%EA%B3%B5%EA%B3%A0&amp;initValue=Y&amp;countYn=Y&amp;epcCheck=Y&amp;yyyymmdd=&amp;ofr_pageSize=60</t>
+  </si>
+  <si>
+    <t>사리현IC주변(시도82호선) 도로개설공사 신기술·특허공법 선정 기술제안서...</t>
+  </si>
+  <si>
+    <t>사회혁신형 스마트팜 구축 제안사업자 모집 공고</t>
+  </si>
+  <si>
+    <t>A035</t>
+  </si>
+  <si>
+    <t>경기도_수원시</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=6</t>
+  </si>
+  <si>
+    <t>「제35회 전국 무궁화 수원축제 대행용역」 제안서 평가위원 모집 공고새글</t>
+  </si>
+  <si>
+    <t>A041</t>
+  </si>
+  <si>
+    <t>경기도_용인시처인구</t>
+  </si>
+  <si>
+    <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
+  </si>
+  <si>
+    <t>「2025년 용인시 공공기관 통합채용 대행 용역」 제안서 평가위원(후보자...</t>
+  </si>
+  <si>
+    <t>2025 수지구보건소 흉부진단용 엑스선장치 구매사업 제안서 평가위원회 평...</t>
+  </si>
+  <si>
+    <t>「보통천 친수국토 조성사업」특정공법(신기술・특허) 공법선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>「시흥시 시민참여 경관계획 재정비 용역」 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>오산시 아동복지심의위원회 위원 모집 재공고</t>
+  </si>
+  <si>
+    <t>「경기도·의왕시 똑버스 운송사업」 제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>파주시 모빌리티 개선계획 수립용역 제안서 평가위원회 평과결과 공고N</t>
+  </si>
+  <si>
+    <t>제안서 평가 결과 공개[2025년 평택시 AI기초학력증진(스마트스쿨)운영 용역]</t>
+  </si>
+  <si>
+    <t>「화성시 상수도 공간정보 수정·개선 사업」 제안서 평가위원(후보자) 모집...</t>
+  </si>
+  <si>
+    <t>A072</t>
+  </si>
+  <si>
+    <t>경기도_가평군</t>
+  </si>
+  <si>
+    <t>https://www.gp.go.kr/portal/selectGosiList.do?key=2148&amp;not_ancmt_se_code=01&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>가평군 도시재생 활성화계획 수립용역의 제안서 정성평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A075</t>
+  </si>
+  <si>
+    <t>강원도_강릉시</t>
+  </si>
+  <si>
+    <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>홍제동 주민참여예산 지역현안사업 추가 제안접수 공고</t>
+  </si>
+  <si>
+    <t>A077</t>
+  </si>
+  <si>
+    <t>강원도_삼척시</t>
+  </si>
+  <si>
+    <t>https://www.samcheok.go.kr/media/00084/00095.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>신기면 대평리 철도가도교 철도횡단구조물 반개착공법 선정을 위한 기술제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>강원도_춘천시</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 공공데이터 및 데이터기반행정 활성화 컨설팅 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=4</t>
+  </si>
+  <si>
+    <t>「2025 생활정원 조성사업 기본 및 실시설계 용역 」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A092</t>
+  </si>
+  <si>
+    <t>강원도_횡성군</t>
+  </si>
+  <si>
+    <t>https://www.hsg.go.kr/www/selectBbsNttList.do?bbsNo=65&amp;key=821&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>전천지구 재해위험개선지구 정비사업 신기술・특정공법 기술제안서 정성적평가 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>제천시 도심상권활성화 버스킹공연 행사대행용역 제안서 평가 결과 공고새글</t>
+  </si>
+  <si>
+    <t>제8회 제천시 청소년 정책제안 콘서트 공모전 참여 청소년 모집새글</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>청주시 도시교통정비 중기계획 수립 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>충청도_영동군</t>
+  </si>
+  <si>
+    <t>https://www.yd21.go.kr/kr/html/sub02/020103.html</t>
+  </si>
+  <si>
+    <t>영동군 성장관리계획 수립 제안서 평가위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>가람 급경사지 붕괴위험지역 정비사업 특정공법 선정을 위한 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>「읍내3,4지구 도시재생 뉴딜사업 지역역량강화용역」제안서 평가위원(후보자...</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>충청도_홍성군</t>
+  </si>
+  <si>
+    <t>https://www.hongseong.go.kr/prog/saeolGosi/kor/sub03_0204/GOSI_ALL/list.do</t>
+  </si>
+  <si>
+    <t>『반려동물 바이오 헬스테크 시험평가인증센터 구축  기본계획 수립 및 실행용역』 제안서 평가위원(후보자) 모집공고</t>
+  </si>
+  <si>
+    <t>군산공공폐수처리장 분리막 교체사업 제안서 평가위원회 위원별 제안서 평가 ...</t>
+  </si>
+  <si>
+    <t>김제시 수소산업 육성계획 수립 연구용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gimje.go.kr/board/list.gimje?boardId=BBS_0000044&amp;menuCd=DOM_000000104003000000&amp;contentsSid=196&amp;cpath=&amp;startPage=2</t>
+  </si>
+  <si>
+    <t>무주 남대천교 경관분수 제작·설치 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.buan.go.kr/board/list.buan?boardId=BBS_0000054&amp;menuCd=DOM_000000103001003000&amp;contentsSid=84&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>CCTV통합관제센터 건립 건축설계 제안공모 심사결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.buan.go.kr/board/list.buan?boardId=BBS_0000054&amp;menuCd=DOM_000000103001003000&amp;contentsSid=84&amp;startPage=3</t>
+  </si>
+  <si>
+    <t>갈거 자연재해위험 개선지구 정비사업 신기술(특허)공법 선정...</t>
+  </si>
+  <si>
+    <t>「갈거 자연재해 위험개선지구 정비사업 실시설계」특허공법(교...</t>
+  </si>
+  <si>
+    <t>A137</t>
+  </si>
+  <si>
+    <t>전라도_나주시</t>
+  </si>
+  <si>
+    <t>https://www.naju.go.kr/www/administration/notice/legislation?page=2</t>
+  </si>
+  <si>
+    <t>나주시「2025년 산림교육(유아숲교육) 위탁운영 사업」제안서 평가위원(후...새로운글</t>
+  </si>
+  <si>
+    <t>A139</t>
+  </si>
+  <si>
+    <t>전라도_순천시</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>「2025순천미식주간 현장행사 운영 대행 용역」 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>2025년 순천만국가정원 안전관리 용역(4월 ~ 12월) 제안서 평가위원...</t>
+  </si>
+  <si>
+    <t>여수시 정보공개심의회 위원 명단 공고새로운글</t>
+  </si>
+  <si>
+    <t>A145</t>
+  </si>
+  <si>
+    <t>전라도_담양군</t>
+  </si>
+  <si>
+    <t>https://www.damyang.go.kr/eminwon/searchList?domainId=DOM_0000001&amp;contentsSid=2&amp;menuCd=DOM_000000190001002001&amp;boardType=special&amp;listType=01</t>
+  </si>
+  <si>
+    <t>담양군 주·정차 위반 의견진술심의위원회 구성 및 운영 규칙 제정안 입법예...</t>
+  </si>
+  <si>
+    <t>https://www.muan.go.kr/www/openmuan/new/announcement?page=1</t>
+  </si>
+  <si>
+    <t>「제11회 무안황토갯벌축제 행사대행 용역」 제안서 평가위원(후보자) 등록...</t>
+  </si>
+  <si>
+    <t>2025 완도 장보고수산물축제 기획 및 운영 용역 제안서 평가위원회 결과새로운글</t>
+  </si>
+  <si>
+    <t>「2025년 함평군 산림교육(유아숲, 숲해설) 위탁운영 사업」제안서 평가...</t>
+  </si>
+  <si>
+    <t>경주시 자율주행 신호정보 제공시스템 구축 제안서 평과결과 공고</t>
+  </si>
+  <si>
+    <t>경주역세권 복합환승센터 기본구상 및 타당성 검토용역 제안서 평가위원회 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=3</t>
+  </si>
+  <si>
+    <t>경주 동궁과 월지 연꽃단지 디지털 야간경관 콘텐츠 제작 및 시스템 구축 용역 제안서 평가위원회 평가결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=4</t>
+  </si>
+  <si>
+    <t>「국립포항 전문과학관 도시관리계획 결정(변경) 용역」제안서 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가결과 공고(「송도사거리 간판개선사업」실시설계 및 제작？설치)</t>
+  </si>
+  <si>
+    <t>의성군 미래사회변화대응 지속발전전략수립 연구 용역 제안...</t>
+  </si>
+  <si>
+    <t>전산실 환경개선 용역 제안서 평가위원(후보자) 모집 공...</t>
+  </si>
+  <si>
+    <t>2025년 농기계임대사업 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.miryang.go.kr/web/eMinwonList.do?mnNo=20903000000&amp;pageIndex=4</t>
+  </si>
+  <si>
+    <t>https://www.sacheon.go.kr/news/00009/00014.web?cpage=1</t>
+  </si>
+  <si>
+    <t>[제2025-397호]『사천시 배수지 소형생물 대응체계 구축사업(여과망)』 자재(신기술·특허) 선정을 위한 기술제안서 제출 공고새 글</t>
+  </si>
+  <si>
+    <t>https://www.sacheon.go.kr/news/00009/00014.web?cpage=3</t>
+  </si>
+  <si>
+    <t>『창녕군 농촌공간 재구조화 및 재생 기본계획 수립 용역』제안서 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>『부곡 온정천 구름다리 조성사업』특정공법 선정 평가결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.cng.go.kr/01541/01539/01553.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>A200</t>
+  </si>
+  <si>
+    <t>경상도_하동군</t>
+  </si>
+  <si>
+    <t>https://www.hadong.go.kr/media/00012.web?cpage=1</t>
+  </si>
+  <si>
+    <t>하동군 스마트 도시계획 수립 용역 제안서 평가위원(후보자)공개 모집</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>경상도_고성군</t>
+  </si>
+  <si>
+    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=2</t>
+  </si>
+  <si>
+    <t>고성 역사문화권 정비시행 예비계획 수립 용역 제안서 평가위원(후보자) 공개모집 공고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1088,6 +1665,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1118,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1128,6 +1709,18 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3989,152 +4582,2926 @@
         <v>45722.617256944446</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F143" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F145" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F146" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F147" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F148" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F149" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F150" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F151" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F152" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F153" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F156" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F158" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E160" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F160" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F161" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F162" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F163" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E164" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F164" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E165" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F165" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F166" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F167" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F168" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E169" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F169" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E170" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F170" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E171" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F171" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F172" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E173" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F173" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E174" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F174" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E175" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F175" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E176" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F176" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E177" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F177" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E178" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F178" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E179" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F179" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F180" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F181" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F182" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F183" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F184" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F185" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F186" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F187" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F188" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F189" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F190" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F191" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F192" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F193" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F194" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F195" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F196" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F197" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F198" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F199" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F200" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E201" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F201" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F202" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E203" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F203" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E204" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F205" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E206" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F206" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E207" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F207" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E208" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F208" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F209" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F210" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F211" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F212" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E213" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F213" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E214" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F214" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E215" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F215" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F216" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F217" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F218" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E219" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F219" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E220" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F220" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E221" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F221" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E222" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F222" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E223" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F223" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E224" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F224" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E225" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F225" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E226" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F226" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E227" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F227" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E228" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F228" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E229" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F229" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E230" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F230" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E231" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F231" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E232" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F232" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E233" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F233" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E234" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F234" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E235" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F235" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E236" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F236" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E237" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F237" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E238" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F238" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E239" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F239" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E240" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F240" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E241" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F241" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E242" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F242" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E243" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F243" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E244" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F244" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E245" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F245" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E246" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F246" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E247" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F247" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E248" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F248" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E249" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F249" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E250" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F250" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E251" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F251" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E252" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F252" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E253" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F253" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E254" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F254" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E255" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F255" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E256" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F256" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E257" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F257" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E258" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F258" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E259" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F259" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E260" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F260" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E261" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F261" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E262" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F262" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E263" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F263" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E264" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F264" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E265" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F265" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="A266" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E266" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F266" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E267" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F267" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="A268" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E268" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F268" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="A269" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E269" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F269" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="A270" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E270" s="7">
+        <v>45721.0</v>
+      </c>
+      <c r="F270" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E271" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F271" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E272" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F272" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E273" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F273" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E274" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F274" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E275" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F275" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E276" s="7">
+        <v>45722.0</v>
+      </c>
+      <c r="F276" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E277" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F277" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E278" s="7">
+        <v>45723.0</v>
+      </c>
+      <c r="F278" s="7">
+        <v>45723.71207175926</v>
+      </c>
+    </row>
     <row r="279" ht="15.75" customHeight="1"/>
     <row r="280" ht="15.75" customHeight="1"/>
     <row r="281" ht="15.75" customHeight="1"/>
@@ -4858,9 +8225,157 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C133"/>
+    <hyperlink r:id="rId2" ref="C134"/>
+    <hyperlink r:id="rId3" ref="C135"/>
+    <hyperlink r:id="rId4" ref="C136"/>
+    <hyperlink r:id="rId5" ref="C137"/>
+    <hyperlink r:id="rId6" ref="C138"/>
+    <hyperlink r:id="rId7" ref="C139"/>
+    <hyperlink r:id="rId8" ref="C140"/>
+    <hyperlink r:id="rId9" ref="C141"/>
+    <hyperlink r:id="rId10" ref="C142"/>
+    <hyperlink r:id="rId11" ref="C143"/>
+    <hyperlink r:id="rId12" ref="C144"/>
+    <hyperlink r:id="rId13" ref="C145"/>
+    <hyperlink r:id="rId14" ref="C146"/>
+    <hyperlink r:id="rId15" ref="C147"/>
+    <hyperlink r:id="rId16" ref="C148"/>
+    <hyperlink r:id="rId17" ref="C149"/>
+    <hyperlink r:id="rId18" ref="C150"/>
+    <hyperlink r:id="rId19" ref="C151"/>
+    <hyperlink r:id="rId20" ref="C152"/>
+    <hyperlink r:id="rId21" ref="C153"/>
+    <hyperlink r:id="rId22" ref="C154"/>
+    <hyperlink r:id="rId23" ref="C155"/>
+    <hyperlink r:id="rId24" ref="C156"/>
+    <hyperlink r:id="rId25" ref="C157"/>
+    <hyperlink r:id="rId26" ref="C158"/>
+    <hyperlink r:id="rId27" ref="C159"/>
+    <hyperlink r:id="rId28" ref="C160"/>
+    <hyperlink r:id="rId29" ref="C161"/>
+    <hyperlink r:id="rId30" location="list/1" ref="C162"/>
+    <hyperlink r:id="rId31" location="list/1" ref="C163"/>
+    <hyperlink r:id="rId32" location="list/1" ref="C164"/>
+    <hyperlink r:id="rId33" location="list/1" ref="C165"/>
+    <hyperlink r:id="rId34" location="list/1" ref="C166"/>
+    <hyperlink r:id="rId35" location="list/1" ref="C167"/>
+    <hyperlink r:id="rId36" ref="C168"/>
+    <hyperlink r:id="rId37" ref="C169"/>
+    <hyperlink r:id="rId38" ref="C170"/>
+    <hyperlink r:id="rId39" ref="C171"/>
+    <hyperlink r:id="rId40" ref="C172"/>
+    <hyperlink r:id="rId41" ref="C173"/>
+    <hyperlink r:id="rId42" ref="C174"/>
+    <hyperlink r:id="rId43" ref="C175"/>
+    <hyperlink r:id="rId44" ref="C176"/>
+    <hyperlink r:id="rId45" ref="C177"/>
+    <hyperlink r:id="rId46" ref="C178"/>
+    <hyperlink r:id="rId47" ref="C179"/>
+    <hyperlink r:id="rId48" ref="C180"/>
+    <hyperlink r:id="rId49" ref="C181"/>
+    <hyperlink r:id="rId50" ref="C182"/>
+    <hyperlink r:id="rId51" ref="C183"/>
+    <hyperlink r:id="rId52" ref="C184"/>
+    <hyperlink r:id="rId53" ref="C185"/>
+    <hyperlink r:id="rId54" ref="C186"/>
+    <hyperlink r:id="rId55" ref="C187"/>
+    <hyperlink r:id="rId56" ref="C188"/>
+    <hyperlink r:id="rId57" ref="C189"/>
+    <hyperlink r:id="rId58" ref="C190"/>
+    <hyperlink r:id="rId59" ref="C191"/>
+    <hyperlink r:id="rId60" ref="C192"/>
+    <hyperlink r:id="rId61" ref="C193"/>
+    <hyperlink r:id="rId62" ref="C194"/>
+    <hyperlink r:id="rId63" ref="C195"/>
+    <hyperlink r:id="rId64" ref="C196"/>
+    <hyperlink r:id="rId65" ref="C197"/>
+    <hyperlink r:id="rId66" ref="C198"/>
+    <hyperlink r:id="rId67" ref="C199"/>
+    <hyperlink r:id="rId68" ref="C200"/>
+    <hyperlink r:id="rId69" ref="C201"/>
+    <hyperlink r:id="rId70" ref="C202"/>
+    <hyperlink r:id="rId71" ref="C203"/>
+    <hyperlink r:id="rId72" ref="C204"/>
+    <hyperlink r:id="rId73" ref="C205"/>
+    <hyperlink r:id="rId74" ref="C206"/>
+    <hyperlink r:id="rId75" ref="C207"/>
+    <hyperlink r:id="rId76" ref="C208"/>
+    <hyperlink r:id="rId77" ref="C209"/>
+    <hyperlink r:id="rId78" ref="C210"/>
+    <hyperlink r:id="rId79" ref="C211"/>
+    <hyperlink r:id="rId80" ref="C212"/>
+    <hyperlink r:id="rId81" ref="C213"/>
+    <hyperlink r:id="rId82" ref="C214"/>
+    <hyperlink r:id="rId83" ref="C215"/>
+    <hyperlink r:id="rId84" ref="C216"/>
+    <hyperlink r:id="rId85" ref="C217"/>
+    <hyperlink r:id="rId86" ref="C218"/>
+    <hyperlink r:id="rId87" ref="C219"/>
+    <hyperlink r:id="rId88" ref="C220"/>
+    <hyperlink r:id="rId89" ref="C221"/>
+    <hyperlink r:id="rId90" ref="C222"/>
+    <hyperlink r:id="rId91" ref="C223"/>
+    <hyperlink r:id="rId92" ref="C224"/>
+    <hyperlink r:id="rId93" ref="C225"/>
+    <hyperlink r:id="rId94" ref="C226"/>
+    <hyperlink r:id="rId95" ref="C227"/>
+    <hyperlink r:id="rId96" ref="C228"/>
+    <hyperlink r:id="rId97" ref="C229"/>
+    <hyperlink r:id="rId98" ref="C230"/>
+    <hyperlink r:id="rId99" ref="C231"/>
+    <hyperlink r:id="rId100" ref="C232"/>
+    <hyperlink r:id="rId101" ref="C233"/>
+    <hyperlink r:id="rId102" ref="C234"/>
+    <hyperlink r:id="rId103" ref="C235"/>
+    <hyperlink r:id="rId104" ref="C236"/>
+    <hyperlink r:id="rId105" ref="C237"/>
+    <hyperlink r:id="rId106" ref="C238"/>
+    <hyperlink r:id="rId107" ref="C239"/>
+    <hyperlink r:id="rId108" ref="C240"/>
+    <hyperlink r:id="rId109" ref="C241"/>
+    <hyperlink r:id="rId110" ref="C242"/>
+    <hyperlink r:id="rId111" ref="C243"/>
+    <hyperlink r:id="rId112" ref="C244"/>
+    <hyperlink r:id="rId113" ref="C245"/>
+    <hyperlink r:id="rId114" ref="C246"/>
+    <hyperlink r:id="rId115" ref="C247"/>
+    <hyperlink r:id="rId116" ref="C248"/>
+    <hyperlink r:id="rId117" ref="C249"/>
+    <hyperlink r:id="rId118" ref="C250"/>
+    <hyperlink r:id="rId119" ref="C251"/>
+    <hyperlink r:id="rId120" ref="C252"/>
+    <hyperlink r:id="rId121" ref="C253"/>
+    <hyperlink r:id="rId122" ref="C254"/>
+    <hyperlink r:id="rId123" ref="C255"/>
+    <hyperlink r:id="rId124" ref="C256"/>
+    <hyperlink r:id="rId125" ref="C257"/>
+    <hyperlink r:id="rId126" ref="C258"/>
+    <hyperlink r:id="rId127" ref="C259"/>
+    <hyperlink r:id="rId128" ref="C260"/>
+    <hyperlink r:id="rId129" ref="C261"/>
+    <hyperlink r:id="rId130" ref="C262"/>
+    <hyperlink r:id="rId131" ref="C263"/>
+    <hyperlink r:id="rId132" ref="C264"/>
+    <hyperlink r:id="rId133" ref="C265"/>
+    <hyperlink r:id="rId134" ref="C266"/>
+    <hyperlink r:id="rId135" ref="C267"/>
+    <hyperlink r:id="rId136" ref="C268"/>
+    <hyperlink r:id="rId137" ref="C269"/>
+    <hyperlink r:id="rId138" ref="C270"/>
+    <hyperlink r:id="rId139" ref="C271"/>
+    <hyperlink r:id="rId140" ref="C272"/>
+    <hyperlink r:id="rId141" ref="C273"/>
+    <hyperlink r:id="rId142" ref="C274"/>
+    <hyperlink r:id="rId143" ref="C275"/>
+    <hyperlink r:id="rId144" ref="C276"/>
+    <hyperlink r:id="rId145" ref="C277"/>
+    <hyperlink r:id="rId146" ref="C278"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId147"/>
 </worksheet>
 </file>